--- a/WENO5Error.xlsx
+++ b/WENO5Error.xlsx
@@ -462,83 +462,83 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1.043449074792143e-06</v>
+        <v>8.631340849440309e-06</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>6.714719504863353e-07</v>
+        <v>3.664069728959163e-06</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>1.310867079896702e-07</v>
+        <v>2.831938433883148e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>2.992766881119884</v>
+        <v>4.929722887782332</v>
       </c>
       <c r="D3" t="n">
-        <v>8.443862453688666e-08</v>
+        <v>1.272573668664734e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>2.991352151756651</v>
+        <v>4.847625878118397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="B4" t="n">
-        <v>1.642797133692186e-08</v>
+        <v>9.55815363216975e-09</v>
       </c>
       <c r="C4" t="n">
-        <v>2.996295165330853</v>
+        <v>4.888914134654016</v>
       </c>
       <c r="D4" t="n">
-        <v>1.058653653629449e-08</v>
+        <v>4.194038005778111e-09</v>
       </c>
       <c r="E4" t="n">
-        <v>2.995672399922603</v>
+        <v>4.923265430408822</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="B5" t="n">
-        <v>2.056313084976957e-09</v>
+        <v>3.265190083981633e-10</v>
       </c>
       <c r="C5" t="n">
-        <v>2.998022490633638</v>
+        <v>4.871493070570192</v>
       </c>
       <c r="D5" t="n">
-        <v>1.325454412892668e-09</v>
+        <v>1.346509570510079e-10</v>
       </c>
       <c r="E5" t="n">
-        <v>2.997671721430463</v>
+        <v>4.961043545840989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1600</v>
+        <v>160</v>
       </c>
       <c r="B6" t="n">
-        <v>2.576312600302251e-10</v>
+        <v>1.147392024725167e-11</v>
       </c>
       <c r="C6" t="n">
-        <v>2.996680379010387</v>
+        <v>4.83073668073648</v>
       </c>
       <c r="D6" t="n">
-        <v>1.667150861806022e-10</v>
+        <v>4.389821839367869e-12</v>
       </c>
       <c r="E6" t="n">
-        <v>2.991030485662931</v>
+        <v>4.938918284547951</v>
       </c>
     </row>
   </sheetData>

--- a/WENO5Error.xlsx
+++ b/WENO5Error.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,83 +462,66 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="B2" t="n">
-        <v>8.631340849440309e-06</v>
+        <v>1.13800417850845e-05</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>3.664069728959163e-06</v>
+        <v>3.12148858938599e-06</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="B3" t="n">
-        <v>2.831938433883148e-07</v>
+        <v>5.218885158821421e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>4.929722887782332</v>
+        <v>4.44662038878624</v>
       </c>
       <c r="D3" t="n">
-        <v>1.272573668664734e-07</v>
+        <v>1.027392215746659e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>4.847625878118397</v>
+        <v>4.925175238957598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40</v>
+        <v>512</v>
       </c>
       <c r="B4" t="n">
-        <v>9.55815363216975e-09</v>
+        <v>2.221601258013253e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>4.888914134654016</v>
+        <v>4.554069851582154</v>
       </c>
       <c r="D4" t="n">
-        <v>4.194038005778111e-09</v>
+        <v>3.246242386012455e-09</v>
       </c>
       <c r="E4" t="n">
-        <v>4.923265430408822</v>
+        <v>4.98407251263174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80</v>
+        <v>1024</v>
       </c>
       <c r="B5" t="n">
-        <v>3.265190083981633e-10</v>
+        <v>6.090786937299042e-10</v>
       </c>
       <c r="C5" t="n">
-        <v>4.871493070570192</v>
+        <v>5.188827450811037</v>
       </c>
       <c r="D5" t="n">
-        <v>1.346509570510079e-10</v>
+        <v>8.15703060652595e-11</v>
       </c>
       <c r="E5" t="n">
-        <v>4.961043545840989</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>160</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.147392024725167e-11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4.83073668073648</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.389821839367869e-12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.938918284547951</v>
+        <v>5.314582849549995</v>
       </c>
     </row>
   </sheetData>
